--- a/3_experts_res/SEED_IV/res_compare.xlsx
+++ b/3_experts_res/SEED_IV/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4706A69-A762-4E5D-8A23-738AE97EA2A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FF872F-5FBD-4331-9AD8-E3FF3DC57D64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -864,7 +864,7 @@
         <v>0.67479999999999996</v>
       </c>
       <c r="C31" s="11">
-        <v>0.71950000000000003</v>
+        <v>0.73580000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C47" s="7">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.84723333333333328</v>
+        <v>0.84759555555555544</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED_IV/res_compare.xlsx
+++ b/3_experts_res/SEED_IV/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FF872F-5FBD-4331-9AD8-E3FF3DC57D64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9431097-C63D-460B-A1D4-C1979D0A5280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,7 +710,7 @@
         <v>0.90339999999999998</v>
       </c>
       <c r="C17" s="4">
-        <v>0.78280000000000005</v>
+        <v>0.8276</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C47" s="7">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.84759555555555544</v>
+        <v>0.84859111111111107</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED_IV/res_compare.xlsx
+++ b/3_experts_res/SEED_IV/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED_IV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9431097-C63D-460B-A1D4-C1979D0A5280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9554C91B-B499-4319-A352-87CB842502B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>people</t>
   </si>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>3 E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEST</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -212,6 +216,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -518,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +543,11 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -547,8 +557,11 @@
       <c r="C2" s="9">
         <v>0.83789999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="9">
+        <v>0.83789999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -558,8 +571,11 @@
       <c r="C3" s="3">
         <v>0.90429999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="3">
+        <v>0.90429999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -569,8 +585,11 @@
       <c r="C4" s="4">
         <v>0.78459999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="4">
+        <v>0.84550000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -580,8 +599,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -591,8 +613,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -602,8 +627,11 @@
       <c r="C7" s="9">
         <v>0.8659</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="9">
+        <v>0.8659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -613,8 +641,11 @@
       <c r="C8" s="4">
         <v>0.83789999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="3">
+        <v>0.85170000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -624,8 +655,11 @@
       <c r="C9" s="10">
         <v>0.95040000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="10">
+        <v>0.95040000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -635,8 +669,11 @@
       <c r="C10" s="4">
         <v>0.84150000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="4">
+        <v>0.84150000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -646,8 +683,11 @@
       <c r="C11" s="4">
         <v>0.84830000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="3">
+        <v>0.89659999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -657,8 +697,11 @@
       <c r="C12" s="11">
         <v>0.68089999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="11">
+        <v>0.68089999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -668,8 +711,11 @@
       <c r="C13" s="3">
         <v>0.878</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="3">
+        <v>0.92679999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -679,8 +725,11 @@
       <c r="C14" s="11">
         <v>0.7379</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="11">
+        <v>0.7379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -690,8 +739,11 @@
       <c r="C15" s="3">
         <v>0.91490000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="3">
+        <v>0.91839999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -701,8 +753,11 @@
       <c r="C16" s="10">
         <v>0.94310000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="10">
+        <v>0.94310000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -712,8 +767,11 @@
       <c r="C17" s="4">
         <v>0.8276</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="3">
+        <v>0.90339999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -723,8 +781,11 @@
       <c r="C18" s="10">
         <v>0.90429999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="10">
+        <v>0.90429999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -734,8 +795,11 @@
       <c r="C19" s="4">
         <v>0.78459999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="4">
+        <v>0.78459999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -745,8 +809,11 @@
       <c r="C20" s="3">
         <v>0.90339999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="3">
+        <v>0.94830000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -756,8 +823,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -767,8 +837,11 @@
       <c r="C22" s="11">
         <v>0.626</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="11">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -778,8 +851,11 @@
       <c r="C23" s="4">
         <v>0.8931</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="3">
+        <v>0.95520000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -789,8 +865,11 @@
       <c r="C24" s="10">
         <v>0.88300000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="10">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -800,8 +879,11 @@
       <c r="C25" s="3">
         <v>0.92279999999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -811,8 +893,11 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -822,19 +907,25 @@
       <c r="C27" s="4">
         <v>0.76949999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="4">
+        <v>0.76949999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>0.82930000000000004</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>0.82110000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="3">
+        <v>0.82930000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -844,8 +935,11 @@
       <c r="C29" s="10">
         <v>0.90339999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="10">
+        <v>0.90339999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -855,8 +949,11 @@
       <c r="C30" s="10">
         <v>0.89359999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="10">
+        <v>0.89359999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -866,8 +963,11 @@
       <c r="C31" s="11">
         <v>0.73580000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="11">
+        <v>0.73580000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -877,8 +977,11 @@
       <c r="C32" s="10">
         <v>0.88280000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32" s="10">
+        <v>0.88280000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -888,8 +991,11 @@
       <c r="C33" s="4">
         <v>0.84750000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" s="3">
+        <v>0.91490000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -899,8 +1005,11 @@
       <c r="C34" s="4">
         <v>0.78459999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="4">
+        <v>0.78459999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -910,8 +1019,11 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -921,8 +1033,11 @@
       <c r="C36" s="11">
         <v>0.65600000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" s="11">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -932,8 +1047,11 @@
       <c r="C37" s="5">
         <v>0.70330000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37" s="5">
+        <v>0.70730000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -943,8 +1061,11 @@
       <c r="C38" s="10">
         <v>0.96209999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="10">
+        <v>0.96209999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -954,8 +1075,11 @@
       <c r="C39" s="12">
         <v>0.86519999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="12">
+        <v>0.86519999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -965,8 +1089,11 @@
       <c r="C40" s="5">
         <v>0.63819999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="4">
+        <v>0.75609999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -976,8 +1103,11 @@
       <c r="C41" s="4">
         <v>0.82069999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41" s="4">
+        <v>0.83789999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -987,8 +1117,11 @@
       <c r="C42" s="3">
         <v>0.90429999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42" s="3">
+        <v>0.90429999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -998,8 +1131,11 @@
       <c r="C43" s="11">
         <v>0.55689999999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" s="11">
+        <v>0.55689999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1009,8 +1145,11 @@
       <c r="C44" s="13">
         <v>0.83789999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44" s="13">
+        <v>0.83789999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1020,8 +1159,11 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1031,8 +1173,11 @@
       <c r="C46" s="4">
         <v>0.83330000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" s="4">
+        <v>0.83330000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
@@ -1043,6 +1188,10 @@
       <c r="C47" s="7">
         <f>AVERAGE(C2:C46)</f>
         <v>0.84859111111111107</v>
+      </c>
+      <c r="D47">
+        <f>AVERAGE(D2:D46)</f>
+        <v>0.86303555555555567</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED_IV/res_compare.xlsx
+++ b/3_experts_res/SEED_IV/res_compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9554C91B-B499-4319-A352-87CB842502B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7862691-22DB-4152-978C-A9CE654BDBDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>3 E</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEST</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -216,9 +212,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -525,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D25" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,11 +536,8 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -557,11 +547,8 @@
       <c r="C2" s="9">
         <v>0.83789999999999998</v>
       </c>
-      <c r="D2" s="9">
-        <v>0.83789999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -571,11 +558,8 @@
       <c r="C3" s="3">
         <v>0.90429999999999999</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.90429999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -585,11 +569,8 @@
       <c r="C4" s="4">
         <v>0.78459999999999996</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.84550000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -599,11 +580,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -613,11 +591,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -627,11 +602,8 @@
       <c r="C7" s="9">
         <v>0.8659</v>
       </c>
-      <c r="D7" s="9">
-        <v>0.8659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -641,11 +613,8 @@
       <c r="C8" s="4">
         <v>0.83789999999999998</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.85170000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -655,11 +624,8 @@
       <c r="C9" s="10">
         <v>0.95040000000000002</v>
       </c>
-      <c r="D9" s="10">
-        <v>0.95040000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -669,11 +635,8 @@
       <c r="C10" s="4">
         <v>0.84150000000000003</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.84150000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -683,11 +646,8 @@
       <c r="C11" s="4">
         <v>0.84830000000000005</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.89659999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -697,11 +657,8 @@
       <c r="C12" s="11">
         <v>0.68089999999999995</v>
       </c>
-      <c r="D12" s="11">
-        <v>0.68089999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -711,11 +668,8 @@
       <c r="C13" s="3">
         <v>0.878</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.92679999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -725,11 +679,8 @@
       <c r="C14" s="11">
         <v>0.7379</v>
       </c>
-      <c r="D14" s="11">
-        <v>0.7379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -739,11 +690,8 @@
       <c r="C15" s="3">
         <v>0.91490000000000005</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.91839999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -753,11 +701,8 @@
       <c r="C16" s="10">
         <v>0.94310000000000005</v>
       </c>
-      <c r="D16" s="10">
-        <v>0.94310000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -767,11 +712,8 @@
       <c r="C17" s="4">
         <v>0.8276</v>
       </c>
-      <c r="D17" s="3">
-        <v>0.90339999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -781,11 +723,8 @@
       <c r="C18" s="10">
         <v>0.90429999999999999</v>
       </c>
-      <c r="D18" s="10">
-        <v>0.90429999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -795,11 +734,8 @@
       <c r="C19" s="4">
         <v>0.78459999999999996</v>
       </c>
-      <c r="D19" s="4">
-        <v>0.78459999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -809,11 +745,8 @@
       <c r="C20" s="3">
         <v>0.90339999999999998</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.94830000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -823,11 +756,8 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -837,11 +767,8 @@
       <c r="C22" s="11">
         <v>0.626</v>
       </c>
-      <c r="D22" s="11">
-        <v>0.626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -851,11 +778,8 @@
       <c r="C23" s="4">
         <v>0.8931</v>
       </c>
-      <c r="D23" s="3">
-        <v>0.95520000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -865,11 +789,8 @@
       <c r="C24" s="10">
         <v>0.88300000000000001</v>
       </c>
-      <c r="D24" s="10">
-        <v>0.88300000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -879,11 +800,8 @@
       <c r="C25" s="3">
         <v>0.92279999999999995</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -893,11 +811,8 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -907,11 +822,8 @@
       <c r="C27" s="4">
         <v>0.76949999999999996</v>
       </c>
-      <c r="D27" s="4">
-        <v>0.76949999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -921,11 +833,8 @@
       <c r="C28" s="3">
         <v>0.82110000000000005</v>
       </c>
-      <c r="D28" s="3">
-        <v>0.82930000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -935,11 +844,8 @@
       <c r="C29" s="10">
         <v>0.90339999999999998</v>
       </c>
-      <c r="D29" s="10">
-        <v>0.90339999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -949,11 +855,8 @@
       <c r="C30" s="10">
         <v>0.89359999999999995</v>
       </c>
-      <c r="D30" s="10">
-        <v>0.89359999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -963,11 +866,8 @@
       <c r="C31" s="11">
         <v>0.73580000000000001</v>
       </c>
-      <c r="D31" s="11">
-        <v>0.73580000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -977,11 +877,8 @@
       <c r="C32" s="10">
         <v>0.88280000000000003</v>
       </c>
-      <c r="D32" s="10">
-        <v>0.88280000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -991,11 +888,8 @@
       <c r="C33" s="4">
         <v>0.84750000000000003</v>
       </c>
-      <c r="D33" s="3">
-        <v>0.91490000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1005,11 +899,8 @@
       <c r="C34" s="4">
         <v>0.78459999999999996</v>
       </c>
-      <c r="D34" s="4">
-        <v>0.78459999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1019,11 +910,8 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1033,11 +921,8 @@
       <c r="C36" s="11">
         <v>0.65600000000000003</v>
       </c>
-      <c r="D36" s="11">
-        <v>0.65600000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1047,11 +932,8 @@
       <c r="C37" s="5">
         <v>0.70330000000000004</v>
       </c>
-      <c r="D37" s="5">
-        <v>0.70730000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1061,11 +943,8 @@
       <c r="C38" s="10">
         <v>0.96209999999999996</v>
       </c>
-      <c r="D38" s="10">
-        <v>0.96209999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1075,11 +954,8 @@
       <c r="C39" s="12">
         <v>0.86519999999999997</v>
       </c>
-      <c r="D39" s="12">
-        <v>0.86519999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1089,11 +965,8 @@
       <c r="C40" s="5">
         <v>0.63819999999999999</v>
       </c>
-      <c r="D40" s="4">
-        <v>0.75609999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1103,11 +976,8 @@
       <c r="C41" s="4">
         <v>0.82069999999999999</v>
       </c>
-      <c r="D41" s="4">
-        <v>0.83789999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1117,11 +987,8 @@
       <c r="C42" s="3">
         <v>0.90429999999999999</v>
       </c>
-      <c r="D42" s="3">
-        <v>0.90429999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1131,11 +998,8 @@
       <c r="C43" s="11">
         <v>0.55689999999999995</v>
       </c>
-      <c r="D43" s="11">
-        <v>0.55689999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1145,11 +1009,8 @@
       <c r="C44" s="13">
         <v>0.83789999999999998</v>
       </c>
-      <c r="D44" s="13">
-        <v>0.83789999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1159,11 +1020,8 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1173,11 +1031,8 @@
       <c r="C46" s="4">
         <v>0.83330000000000004</v>
       </c>
-      <c r="D46" s="4">
-        <v>0.83330000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>1</v>
       </c>
@@ -1188,10 +1043,6 @@
       <c r="C47" s="7">
         <f>AVERAGE(C2:C46)</f>
         <v>0.84859111111111107</v>
-      </c>
-      <c r="D47">
-        <f>AVERAGE(D2:D46)</f>
-        <v>0.86303555555555567</v>
       </c>
     </row>
   </sheetData>

--- a/3_experts_res/SEED_IV/res_compare.xlsx
+++ b/3_experts_res/SEED_IV/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\3_experts_res\SEED_IV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res(不跨人)\SEED_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7862691-22DB-4152-978C-A9CE654BDBDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC0F981-CC5D-4A85-82FA-9A05214CC88F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -521,7 +521,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D1:D1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,7 +599,7 @@
       <c r="B7" s="4">
         <v>0.78859999999999997</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>0.8659</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
       <c r="B23" s="3">
         <v>0.95520000000000005</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>0.8931</v>
       </c>
     </row>
@@ -830,7 +830,7 @@
       <c r="B28" s="3">
         <v>0.82930000000000004</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>0.82110000000000005</v>
       </c>
     </row>

--- a/3_experts_res/SEED_IV/res_compare.xlsx
+++ b/3_experts_res/SEED_IV/res_compare.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res(不跨人)\SEED_IV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\final_res\SEED_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC0F981-CC5D-4A85-82FA-9A05214CC88F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154ADF48-8476-4CB6-8DA8-659371441AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -567,7 +567,7 @@
         <v>0.84550000000000003</v>
       </c>
       <c r="C4" s="4">
-        <v>0.78459999999999996</v>
+        <v>0.80079999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -632,8 +632,8 @@
       <c r="B10" s="4">
         <v>0.84150000000000003</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.84150000000000003</v>
+      <c r="C10" s="10">
+        <v>0.89019999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -665,8 +665,8 @@
       <c r="B13" s="3">
         <v>0.92679999999999996</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.878</v>
+      <c r="C13" s="10">
+        <v>0.99590000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -709,8 +709,8 @@
       <c r="B17" s="3">
         <v>0.90339999999999998</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.8276</v>
+      <c r="C17" s="3">
+        <v>0.85170000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -742,8 +742,8 @@
       <c r="B20" s="3">
         <v>0.94830000000000003</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.90339999999999998</v>
+      <c r="C20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -775,8 +775,8 @@
       <c r="B23" s="3">
         <v>0.95520000000000005</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.8931</v>
+      <c r="C23" s="10">
+        <v>0.97589999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -797,8 +797,8 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.92279999999999995</v>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -885,8 +885,8 @@
       <c r="B33" s="3">
         <v>0.91490000000000005</v>
       </c>
-      <c r="C33" s="4">
-        <v>0.84750000000000003</v>
+      <c r="C33" s="3">
+        <v>0.86519999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -919,7 +919,7 @@
         <v>0.63829999999999998</v>
       </c>
       <c r="C36" s="11">
-        <v>0.65600000000000003</v>
+        <v>0.6915</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -962,8 +962,8 @@
       <c r="B40" s="4">
         <v>0.75609999999999999</v>
       </c>
-      <c r="C40" s="5">
-        <v>0.63819999999999999</v>
+      <c r="C40" s="4">
+        <v>0.75609999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -973,8 +973,8 @@
       <c r="B41" s="4">
         <v>0.83789999999999998</v>
       </c>
-      <c r="C41" s="4">
-        <v>0.82069999999999999</v>
+      <c r="C41" s="10">
+        <v>0.91379999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -996,7 +996,7 @@
         <v>0.52849999999999997</v>
       </c>
       <c r="C43" s="11">
-        <v>0.55689999999999995</v>
+        <v>0.63009999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C47" s="7">
         <f>AVERAGE(C2:C46)</f>
-        <v>0.84859111111111107</v>
+        <v>0.86638888888888888</v>
       </c>
     </row>
   </sheetData>
